--- a/app/src/pieces/excel/excel_templates/industry_template.xlsx
+++ b/app/src/pieces/excel/excel_templates/industry_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakhaurov/PycharmProjects/vzyat_tuzi.bez_shansov.nas_pyatero/app/src/pieces/excel/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CC4F530-6DBE-3B49-AA15-F247749A2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317AF1C0-8BC0-CD43-AEC1-84FBFC7958D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{66B47E7E-D2CE-2342-A8E5-BB66BC93310B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Проституция</t>
+    <t>Молочное производство</t>
   </si>
 </sst>
 </file>
